--- a/data/animal_olympics.xlsx
+++ b/data/animal_olympics.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C1314F-0B74-5B42-A80A-65D09630AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3D8BB-6C75-FB4E-A77F-169685F7A58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="2380" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{3710424D-D1A7-C54D-9F3B-8EC50C8F4EE6}"/>
+    <workbookView xWindow="8140" yWindow="2380" windowWidth="28240" windowHeight="17240" xr2:uid="{3710424D-D1A7-C54D-9F3B-8EC50C8F4EE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>animal</t>
   </si>
@@ -48,12 +47,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -141,7 +134,19 @@
     <t>jump_height</t>
   </si>
   <si>
-    <t>Flea</t>
+    <t>Flea (Dog)</t>
+  </si>
+  <si>
+    <t>Flea (Cat)</t>
+  </si>
+  <si>
+    <t>jump_length</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Cow</t>
   </si>
 </sst>
 </file>
@@ -514,641 +519,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2688C50-6D88-ED42-B1A4-FAB6F89CE187}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DBD03-6CCE-9B4B-8532-EADFC52C4BF4}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
       <c r="D2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>907</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>150</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DBD03-6CCE-9B4B-8532-EADFC52C4BF4}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>510</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3538</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>8000</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>8000</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>8000</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>331</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>240</v>
+      </c>
+      <c r="F16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="E17">
+        <v>13.2</v>
+      </c>
+      <c r="F17">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="E18">
+        <v>15.5</v>
+      </c>
+      <c r="F18">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
         <v>8.5</v>
       </c>
-      <c r="D8">
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E19">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>67.8</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>150</v>
+      </c>
+      <c r="F21">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>67.8</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>71</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E22">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>125</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>140</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-      <c r="D17">
-        <v>36</v>
-      </c>
-      <c r="E17">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>318</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>318</v>
-      </c>
-      <c r="D20">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>331</v>
-      </c>
-      <c r="D21">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>430</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>470</v>
       </c>
       <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>850</v>
+      </c>
+      <c r="D24">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>470</v>
-      </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
       <c r="E24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>850</v>
+        <v>88</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>907</v>
+        <v>2150</v>
       </c>
       <c r="D27">
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>360</v>
+      </c>
+      <c r="F29">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>600</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>160</v>
+      </c>
+      <c r="F33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>91</v>
+      </c>
+      <c r="F34">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2200</v>
+      </c>
+      <c r="D35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2200</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2200</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>150</v>
+      </c>
+      <c r="F38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>318</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>318</v>
+      </c>
+      <c r="D40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>470</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>430</v>
+      </c>
+      <c r="D42">
         <v>8</v>
       </c>
-      <c r="C28">
-        <v>2150</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>2200</v>
-      </c>
-      <c r="D29">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>2200</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>2200</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>3538</v>
-      </c>
-      <c r="D32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>5000</v>
-      </c>
-      <c r="D33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>5000</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>5000</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>8000</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>8000</v>
-      </c>
-      <c r="D37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>8000</v>
-      </c>
-      <c r="D38">
-        <v>22</v>
+      <c r="E42">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
-    <sortCondition ref="C2:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
